--- a/test/ReservationTestData.xlsx
+++ b/test/ReservationTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="93">
   <si>
     <t>Tcno</t>
   </si>
@@ -298,6 +298,12 @@
   </si>
   <si>
     <t>CurrentTime</t>
+  </si>
+  <si>
+    <t>08:61</t>
+  </si>
+  <si>
+    <t>10:61</t>
   </si>
 </sst>
 </file>
@@ -793,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1678,7 +1684,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -1702,12 +1708,12 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="6">
-        <v>0.3756944444444445</v>
+      <c r="B36" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="C36" s="6">
         <v>0.41666666666666669</v>
@@ -1723,6 +1729,54 @@
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.45763888888888887</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>87</v>
       </c>
     </row>

--- a/test/ReservationTestData.xlsx
+++ b/test/ReservationTestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="94">
   <si>
     <t>Tcno</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>10:61</t>
+  </si>
+  <si>
+    <t>Boundary condition test on reservationTo time</t>
   </si>
 </sst>
 </file>
@@ -801,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="F5" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,7 +1756,7 @@
         <v>44</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
@@ -1777,7 +1780,7 @@
         <v>44</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
